--- a/S3/S3_L/S3_L_jikken/S3_L_Fluctuations/ゆらぎ/ゆらぎ (自動保存済み).xlsx
+++ b/S3/S3_L/S3_L_jikken/S3_L_Fluctuations/ゆらぎ/ゆらぎ (自動保存済み).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="299" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="149" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -57,6 +57,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>増幅器とフィルターの増幅特性の測定</t>
     </r>
@@ -66,6 +67,7 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>}      @@ -78,6 +80,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>ボルツマン定数の測定</t>
     </r>
@@ -87,6 +90,7 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>}      @@ -99,6 +103,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>電気素量</t>
     </r>
@@ -108,6 +113,7 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>$e$</t>
     </r>
@@ -117,6 +123,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>の測定</t>
     </r>
@@ -126,6 +133,7 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>}</t>
     </r>
@@ -140,6 +148,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>測定値</t>
     </r>
@@ -149,6 +158,7 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -163,6 +173,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>文献値</t>
     </r>
@@ -172,6 +183,7 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -193,6 +205,7 @@
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -214,6 +227,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -372,721 +386,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ee4000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>20000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$C$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4356</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5184</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5476</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8769</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5721</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.76</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.5264</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.9716</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.0625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.5561</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.0681</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26.9361</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30.8025</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32.6041</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32.6041</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.64</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>33.1776</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.1489</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.6969</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30.3601</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>28.3024</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.9361</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26.1121</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>23.04</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21.4369</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20.3401</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>19.7136</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18.3184</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17.5561</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.8881</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.6721</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.5625</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.5225</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.6656</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.6481</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.6641</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.1664</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.8464</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.6084</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.1156</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.2116</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="77536791"/>
-        <c:axId val="56580126"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="77536791"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>f/Hz</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="56580126"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="56580126"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>(Vpp)^2</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="77536791"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ee4000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>220000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>560000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5600000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0678253333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.180426666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54208</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.809152</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6878</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.44613333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.68376666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1218</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.80046666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.34696666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="16751153"/>
-        <c:axId val="2531427"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="16751153"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:min val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>R/Ω</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="2531427"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2531427"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>&lt;V^2&gt;/V^2</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="16751153"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1163,33 +463,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-1.16860806318418</c:v>
+                  <c:v>-3.16860806318418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.743699274275757</c:v>
+                  <c:v>-2.74369927427576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.265936615685406</c:v>
+                  <c:v>-2.26593661568541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.0919698880779873</c:v>
+                  <c:v>-2.09196988807799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.227320982548845</c:v>
+                  <c:v>-1.77267901745116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64798248244364</c:v>
+                  <c:v>-1.35201751755636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="97781966"/>
-        <c:axId val="41147441"/>
+        <c:axId val="85819765"/>
+        <c:axId val="56280306"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97781966"/>
+        <c:axId val="85819765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,11 +525,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41147441"/>
+        <c:crossAx val="56280306"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41147441"/>
+        <c:axId val="56280306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,7 +574,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97781966"/>
+        <c:crossAx val="85819765"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1299,7 +599,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1313,7 +613,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
@@ -1398,11 +698,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67829237"/>
-        <c:axId val="18759712"/>
+        <c:axId val="68428765"/>
+        <c:axId val="92466854"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67829237"/>
+        <c:axId val="68428765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,11 +718,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18759712"/>
+        <c:crossAx val="92466854"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18759712"/>
+        <c:axId val="92466854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +747,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67829237"/>
+        <c:crossAx val="68428765"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1482,20 +782,998 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ee4000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5264</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.9716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.0625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.5561</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.0681</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.9361</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.8025</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.6041</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.6041</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.1776</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.1489</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.6969</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.3601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.3024</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.9361</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.1121</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.04</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.4369</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.3401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.7136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.3184</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.5561</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.8881</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6721</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.5625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.5225</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6656</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6481</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6641</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8464</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.6084</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.1156</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="99354757"/>
+        <c:axId val="31925621"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99354757"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>f/Hz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="31925621"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31925621"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>(Vpp)^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="99354757"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ee4000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="74411291"/>
+        <c:axId val="80910999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74411291"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="80910999"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80910999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="74411291"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ee4000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0678253333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.180426666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.809152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.44613333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.68376666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.80046666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.34696666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="37943379"/>
+        <c:axId val="96029688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="37943379"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>R/Ω</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="96029688"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96029688"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>&lt;V^2&gt;/V^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="37943379"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>568800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>312120</xdr:colOff>
+      <xdr:colOff>338760</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1503,12 +1781,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8168040" y="1895040"/>
-        <a:ext cx="5108760" cy="2741400"/>
+        <a:off x="8195040" y="1886040"/>
+        <a:ext cx="5108400" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457560</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4611960" y="713880"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1522,24 +1830,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>401400</xdr:colOff>
+      <xdr:colOff>428040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1626120" y="1245240"/>
-        <a:ext cx="4113720" cy="2741040"/>
+        <a:off x="1653120" y="1236240"/>
+        <a:ext cx="4113360" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1552,24 +1860,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
+      <xdr:colOff>144000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123120</xdr:colOff>
+      <xdr:colOff>149760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1641960" y="4058280"/>
-        <a:ext cx="4582080" cy="2805840"/>
+        <a:off x="1668960" y="4049280"/>
+        <a:ext cx="4581720" cy="2805480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1581,25 +1889,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457560</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>132120</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1561320" y="2950560"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="6657480" y="3354840"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1619,8 +1927,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2708,8 +3016,8 @@
   </sheetPr>
   <dimension ref="A2:L65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2968,8 +3276,8 @@
         <v>4</v>
       </c>
       <c r="B25" s="0" t="n">
-        <f aca="false">LOG(B18)</f>
-        <v>-1.16860806318418</v>
+        <f aca="false">LOG(B18/100)</f>
+        <v>-3.16860806318418</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,8 +3286,8 @@
         <v>4.34242268082221</v>
       </c>
       <c r="B26" s="0" t="n">
-        <f aca="false">LOG(B19)</f>
-        <v>-0.743699274275757</v>
+        <f aca="false">LOG(B19/100)</f>
+        <v>-2.74369927427576</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,8 +3296,8 @@
         <v>4.7481880270062</v>
       </c>
       <c r="B27" s="0" t="n">
-        <f aca="false">LOG(B20)</f>
-        <v>-0.265936615685406</v>
+        <f aca="false">LOG(B20/100)</f>
+        <v>-2.26593661568541</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,8 +3306,8 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="n">
-        <f aca="false">LOG(B21)</f>
-        <v>-0.0919698880779873</v>
+        <f aca="false">LOG(B21/100)</f>
+        <v>-2.09196988807799</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,8 +3316,8 @@
         <v>5.34242268082221</v>
       </c>
       <c r="B29" s="0" t="n">
-        <f aca="false">LOG(B22)</f>
-        <v>0.227320982548845</v>
+        <f aca="false">LOG(B22/100)</f>
+        <v>-1.77267901745116</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,8 +3326,8 @@
         <v>5.7481880270062</v>
       </c>
       <c r="B30" s="0" t="n">
-        <f aca="false">LOG(B23)</f>
-        <v>0.64798248244364</v>
+        <f aca="false">LOG(B23/100)</f>
+        <v>-1.35201751755636</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
